--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/15/seed3/result_data_KNN.xlsx
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.566</v>
+        <v>6.185</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.428</v>
+        <v>5.792</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.618</v>
+        <v>5.315</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.72</v>
+        <v>5.126</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.834</v>
+        <v>8.73</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.702</v>
+        <v>4.684</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1587,7 +1587,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.636</v>
+        <v>5.356</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>6.76</v>
+        <v>6.114</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>8.738000000000001</v>
+        <v>7.811</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>4.868</v>
+        <v>6.403999999999999</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.812</v>
+        <v>5.659000000000001</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
